--- a/竣工资料/5/5#  5.隐蔽工程验收记录2015.xlsx
+++ b/竣工资料/5/5#  5.隐蔽工程验收记录2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve"> 表C.4.5.1</t>
   </si>
@@ -52,6 +52,9 @@
     <t>隐检时间</t>
   </si>
   <si>
+    <t>2020年8月3日</t>
+  </si>
+  <si>
     <t>隐检依据</t>
   </si>
   <si>
@@ -75,6 +78,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1、混凝土取样检验符合设计要求
 </t>
     </r>
@@ -139,8 +149,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -200,9 +210,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,67 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -290,51 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,7 +284,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -377,30 +387,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,25 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,66 +525,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,19 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +1008,30 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,41 +1051,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,30 +1071,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,141 +1085,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1796,17 +1806,17 @@
   <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:AG16"/>
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="3.71428571428571" customWidth="1"/>
-    <col min="4" max="19" width="2.85714285714286" customWidth="1"/>
-    <col min="20" max="20" width="4.14285714285714" customWidth="1"/>
-    <col min="21" max="32" width="2.85714285714286" customWidth="1"/>
-    <col min="33" max="33" width="3.42857142857143" customWidth="1"/>
+    <col min="1" max="2" width="2.86111111111111" customWidth="1"/>
+    <col min="3" max="3" width="3.71296296296296" customWidth="1"/>
+    <col min="4" max="19" width="2.86111111111111" customWidth="1"/>
+    <col min="20" max="20" width="4.13888888888889" customWidth="1"/>
+    <col min="21" max="32" width="2.86111111111111" customWidth="1"/>
+    <col min="33" max="33" width="3.42592592592593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:33">
@@ -1995,7 +2005,9 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
@@ -2010,14 +2022,14 @@
     </row>
     <row r="6" ht="24.6" customHeight="1" spans="1:33">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2049,7 +2061,7 @@
     </row>
     <row r="7" ht="24.6" customHeight="1" spans="1:33">
       <c r="A7" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -2086,7 +2098,7 @@
     </row>
     <row r="8" ht="24.6" customHeight="1" spans="1:33">
       <c r="A8" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2228,7 +2240,7 @@
     </row>
     <row r="12" ht="24.6" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -2265,7 +2277,7 @@
     </row>
     <row r="13" ht="24.6" customHeight="1" spans="1:33">
       <c r="A13" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2407,7 +2419,7 @@
     </row>
     <row r="17" ht="24.6" customHeight="1" spans="1:33">
       <c r="A17" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
@@ -2619,7 +2631,7 @@
     </row>
     <row r="23" ht="24.6" customHeight="1" spans="1:33">
       <c r="A23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -2796,7 +2808,7 @@
     </row>
     <row r="28" ht="20.75" customHeight="1" spans="1:33">
       <c r="A28" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -2813,7 +2825,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="34"/>
       <c r="P28" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
@@ -2835,7 +2847,7 @@
     </row>
     <row r="29" ht="26.9" customHeight="1" spans="1:33">
       <c r="A29" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -2852,7 +2864,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="36"/>
       <c r="P29" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
@@ -2860,7 +2872,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
       <c r="V29" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
@@ -2868,7 +2880,7 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC29" s="28"/>
       <c r="AD29" s="28"/>
@@ -2913,7 +2925,7 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:33">
       <c r="A31" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2930,7 +2942,7 @@
       <c r="N31" s="31"/>
       <c r="O31" s="39"/>
       <c r="P31" s="40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
